--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\nas_copy\homes\Docgui\Reconversion\BPREA\06 - Planif GIT\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E102324-BF6D-4C7D-BBF3-1C72A9716C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A35790-67C7-4D55-8BC1-643DCC082EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{16ADF3EB-A2C6-4F07-8557-221D48410A7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="3" xr2:uid="{16ADF3EB-A2C6-4F07-8557-221D48410A7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil3 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Entrée du champ</t>
   </si>
@@ -91,12 +93,33 @@
   <si>
     <t>jiboikenotto-5058@internaut.us.to</t>
   </si>
+  <si>
+    <t>130 mètres ; 1 carré = 5m x 5m</t>
+  </si>
+  <si>
+    <t>1 serre</t>
+  </si>
+  <si>
+    <t>1 bloc</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Atelier</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Bloc culture</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +151,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -331,12 +360,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -345,28 +454,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,13 +491,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -711,26 +890,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CCD9DD-BF32-4B35-BFB6-BD9E7663A4A2}">
   <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
@@ -742,278 +921,278 @@
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17"/>
       <c r="C4" s="4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="10"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="18"/>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
       <c r="C9" s="4"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="10"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="10"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="18"/>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="18"/>
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18"/>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
       <c r="C14" s="4"/>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="10"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="18"/>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="18"/>
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="G17" s="8" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="10"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18"/>
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17"/>
       <c r="C19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
       <c r="C20" s="4"/>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="10"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="18"/>
+    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="18"/>
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="8" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="G23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="10"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="18"/>
+    <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="18"/>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
       <c r="C25" s="4"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="18"/>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
       <c r="C26" s="4"/>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="10"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="18"/>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18"/>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="19"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="20"/>
-      <c r="F29" s="8" t="s">
+      <c r="D29" s="19"/>
+      <c r="F29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="18" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18"/>
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="21"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="15"/>
-      <c r="I30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
       <c r="C31" s="4"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="15"/>
-      <c r="I31" s="20"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18"/>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17"/>
       <c r="C32" s="4"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="13"/>
-      <c r="I32" s="21"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
       <c r="C33" s="4"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18"/>
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17"/>
       <c r="C34" s="4"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1022,22 +1201,23 @@
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="8" t="s">
+    <row r="35" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="11"/>
-      <c r="D37" s="13"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D10:E13"/>
     <mergeCell ref="D5:E8"/>
     <mergeCell ref="G5:H8"/>
     <mergeCell ref="C35:D37"/>
@@ -1054,7 +1234,6 @@
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="D21:E24"/>
     <mergeCell ref="D15:E18"/>
-    <mergeCell ref="D10:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1064,67 +1243,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F13F396-F96A-49EA-8021-E32953AD928A}">
   <dimension ref="B5:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="2:45" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:45" ht="160.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-    </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1138,4 +1317,2636 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D0565-200F-4204-914E-EAF3B8F03BFD}">
+  <dimension ref="B2:AS32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="54" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="27"/>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="30"/>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="30"/>
+      <c r="AK6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="44"/>
+      <c r="AQ6" s="44"/>
+      <c r="AR6" s="45"/>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
+      <c r="AN7" s="47"/>
+      <c r="AO7" s="47"/>
+      <c r="AP7" s="47"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="48"/>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="30"/>
+    </row>
+    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="30"/>
+      <c r="AD9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="44"/>
+      <c r="AJ9" s="45"/>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="30"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="51"/>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="30"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="51"/>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="30"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="50"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50"/>
+      <c r="AJ12" s="51"/>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="51"/>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="30"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="47"/>
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="47"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="48"/>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="30"/>
+      <c r="AD16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="39"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="30"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="53"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="30"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="53"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="30"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="53"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="30"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="53"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="30"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="53"/>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="30"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="42"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="30"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="30"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="30"/>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="30"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54"/>
+      <c r="AM26" s="54"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B27" s="28"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="30"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="54"/>
+      <c r="AL27" s="54"/>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="54"/>
+      <c r="AO27" s="54"/>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="30"/>
+      <c r="AN28" s="54"/>
+      <c r="AO28" s="54"/>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+    </row>
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="33"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+    </row>
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AN30" s="54"/>
+      <c r="AO30" s="54"/>
+      <c r="AP30" s="54"/>
+      <c r="AQ30" s="54"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="54"/>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54"/>
+      <c r="AR31" s="54"/>
+      <c r="AS31" s="54"/>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C21:H27"/>
+    <mergeCell ref="S23:Z24"/>
+    <mergeCell ref="K5:Q10"/>
+    <mergeCell ref="C5:I10"/>
+    <mergeCell ref="K12:Q17"/>
+    <mergeCell ref="C12:I17"/>
+    <mergeCell ref="S20:Z21"/>
+    <mergeCell ref="S26:Z27"/>
+    <mergeCell ref="AK6:AR7"/>
+    <mergeCell ref="AD9:AJ14"/>
+    <mergeCell ref="AD16:AI22"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="S5:Z6"/>
+    <mergeCell ref="S8:Z9"/>
+    <mergeCell ref="S11:Z12"/>
+    <mergeCell ref="S14:Z15"/>
+    <mergeCell ref="S17:Z18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F57F5BB-342A-4909-9182-1EA44E81E058}">
+  <dimension ref="A1:BN83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG36" sqref="AG36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="31" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="K3" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
+      <c r="V3" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="51"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="51"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="51"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="U10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="V10" s="45"/>
+      <c r="X10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="45"/>
+      <c r="AA10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
+      <c r="C11" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="K11" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="45"/>
+      <c r="S11" s="29"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="51"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="51"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="51"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="51"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="51"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="51"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="S14" s="29"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="51"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="51"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="51"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="51"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="51"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="48"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="48"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
+      <c r="S17" s="29"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+      <c r="U18" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18" s="45"/>
+      <c r="X18" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="45"/>
+      <c r="AA18" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="K19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="51"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="51"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="51"/>
+      <c r="S20" s="29"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="51"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="51"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B21" s="28"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="51"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="51"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B22" s="28"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="51"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="51"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
+      <c r="S23" s="29"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="51"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="51"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B24" s="28"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="51"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="48"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="48"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="48"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+      <c r="S26" s="29"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B27" s="28"/>
+      <c r="C27" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="K27" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="45"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="X27" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y27" s="45"/>
+      <c r="AA27" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B28" s="28"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="51"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="X29" s="49"/>
+      <c r="Y29" s="51"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B30" s="28"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="X30" s="49"/>
+      <c r="Y30" s="51"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B31" s="28"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="51"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B32" s="28"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="51"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B33" s="28"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="48"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="50"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B40" s="28"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
+      <c r="Z40" s="50"/>
+      <c r="AA40" s="50"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="Z41" s="50"/>
+      <c r="AA41" s="50"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B42" s="28"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="30"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B43" s="28"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="47"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="47"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="47"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="47"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="30"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B44" s="28"/>
+      <c r="C44" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="AC44" s="30"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="33"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+    </row>
+    <row r="57" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY57" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ57" s="50"/>
+      <c r="BA57" s="50"/>
+      <c r="BB57" s="50"/>
+      <c r="BC57" s="50"/>
+      <c r="BD57" s="50"/>
+      <c r="BE57" s="50"/>
+      <c r="BF57" s="29"/>
+      <c r="BG57" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH57" s="50"/>
+      <c r="BI57" s="50"/>
+      <c r="BJ57" s="50"/>
+      <c r="BK57" s="50"/>
+      <c r="BL57" s="50"/>
+      <c r="BM57" s="50"/>
+      <c r="BN57" s="29"/>
+    </row>
+    <row r="58" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY58" s="50"/>
+      <c r="AZ58" s="50"/>
+      <c r="BA58" s="50"/>
+      <c r="BB58" s="50"/>
+      <c r="BC58" s="50"/>
+      <c r="BD58" s="50"/>
+      <c r="BE58" s="50"/>
+      <c r="BF58" s="29"/>
+      <c r="BG58" s="50"/>
+      <c r="BH58" s="50"/>
+      <c r="BI58" s="50"/>
+      <c r="BJ58" s="50"/>
+      <c r="BK58" s="50"/>
+      <c r="BL58" s="50"/>
+      <c r="BM58" s="50"/>
+      <c r="BN58" s="29"/>
+    </row>
+    <row r="59" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY59" s="50"/>
+      <c r="AZ59" s="50"/>
+      <c r="BA59" s="50"/>
+      <c r="BB59" s="50"/>
+      <c r="BC59" s="50"/>
+      <c r="BD59" s="50"/>
+      <c r="BE59" s="50"/>
+      <c r="BF59" s="29"/>
+      <c r="BG59" s="50"/>
+      <c r="BH59" s="50"/>
+      <c r="BI59" s="50"/>
+      <c r="BJ59" s="50"/>
+      <c r="BK59" s="50"/>
+      <c r="BL59" s="50"/>
+      <c r="BM59" s="50"/>
+      <c r="BN59" s="29"/>
+    </row>
+    <row r="60" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY60" s="50"/>
+      <c r="AZ60" s="50"/>
+      <c r="BA60" s="50"/>
+      <c r="BB60" s="50"/>
+      <c r="BC60" s="50"/>
+      <c r="BD60" s="50"/>
+      <c r="BE60" s="50"/>
+      <c r="BF60" s="29"/>
+      <c r="BG60" s="50"/>
+      <c r="BH60" s="50"/>
+      <c r="BI60" s="50"/>
+      <c r="BJ60" s="50"/>
+      <c r="BK60" s="50"/>
+      <c r="BL60" s="50"/>
+      <c r="BM60" s="50"/>
+      <c r="BN60" s="29"/>
+    </row>
+    <row r="61" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY61" s="50"/>
+      <c r="AZ61" s="50"/>
+      <c r="BA61" s="50"/>
+      <c r="BB61" s="50"/>
+      <c r="BC61" s="50"/>
+      <c r="BD61" s="50"/>
+      <c r="BE61" s="50"/>
+      <c r="BF61" s="29"/>
+      <c r="BG61" s="50"/>
+      <c r="BH61" s="50"/>
+      <c r="BI61" s="50"/>
+      <c r="BJ61" s="50"/>
+      <c r="BK61" s="50"/>
+      <c r="BL61" s="50"/>
+      <c r="BM61" s="50"/>
+      <c r="BN61" s="29"/>
+    </row>
+    <row r="62" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY62" s="50"/>
+      <c r="AZ62" s="50"/>
+      <c r="BA62" s="50"/>
+      <c r="BB62" s="50"/>
+      <c r="BC62" s="50"/>
+      <c r="BD62" s="50"/>
+      <c r="BE62" s="50"/>
+      <c r="BF62" s="29"/>
+      <c r="BG62" s="50"/>
+      <c r="BH62" s="50"/>
+      <c r="BI62" s="50"/>
+      <c r="BJ62" s="50"/>
+      <c r="BK62" s="50"/>
+      <c r="BL62" s="50"/>
+      <c r="BM62" s="50"/>
+      <c r="BN62" s="29"/>
+    </row>
+    <row r="63" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY63" s="54"/>
+      <c r="AZ63" s="54"/>
+      <c r="BA63" s="54"/>
+      <c r="BB63" s="54"/>
+      <c r="BC63" s="54"/>
+      <c r="BD63" s="54"/>
+      <c r="BE63" s="29"/>
+      <c r="BF63" s="29"/>
+      <c r="BG63" s="29"/>
+      <c r="BH63" s="29"/>
+      <c r="BI63" s="29"/>
+      <c r="BJ63" s="29"/>
+      <c r="BK63" s="29"/>
+      <c r="BL63" s="29"/>
+      <c r="BM63" s="29"/>
+      <c r="BN63" s="29"/>
+    </row>
+    <row r="64" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY64" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ64" s="50"/>
+      <c r="BA64" s="50"/>
+      <c r="BB64" s="50"/>
+      <c r="BC64" s="50"/>
+      <c r="BD64" s="50"/>
+      <c r="BE64" s="50"/>
+      <c r="BF64" s="29"/>
+      <c r="BG64" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH64" s="50"/>
+      <c r="BI64" s="50"/>
+      <c r="BJ64" s="50"/>
+      <c r="BK64" s="50"/>
+      <c r="BL64" s="50"/>
+      <c r="BM64" s="50"/>
+      <c r="BN64" s="29"/>
+    </row>
+    <row r="65" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY65" s="50"/>
+      <c r="AZ65" s="50"/>
+      <c r="BA65" s="50"/>
+      <c r="BB65" s="50"/>
+      <c r="BC65" s="50"/>
+      <c r="BD65" s="50"/>
+      <c r="BE65" s="50"/>
+      <c r="BF65" s="29"/>
+      <c r="BG65" s="50"/>
+      <c r="BH65" s="50"/>
+      <c r="BI65" s="50"/>
+      <c r="BJ65" s="50"/>
+      <c r="BK65" s="50"/>
+      <c r="BL65" s="50"/>
+      <c r="BM65" s="50"/>
+      <c r="BN65" s="29"/>
+    </row>
+    <row r="66" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY66" s="50"/>
+      <c r="AZ66" s="50"/>
+      <c r="BA66" s="50"/>
+      <c r="BB66" s="50"/>
+      <c r="BC66" s="50"/>
+      <c r="BD66" s="50"/>
+      <c r="BE66" s="50"/>
+      <c r="BF66" s="29"/>
+      <c r="BG66" s="50"/>
+      <c r="BH66" s="50"/>
+      <c r="BI66" s="50"/>
+      <c r="BJ66" s="50"/>
+      <c r="BK66" s="50"/>
+      <c r="BL66" s="50"/>
+      <c r="BM66" s="50"/>
+      <c r="BN66" s="29"/>
+    </row>
+    <row r="67" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY67" s="50"/>
+      <c r="AZ67" s="50"/>
+      <c r="BA67" s="50"/>
+      <c r="BB67" s="50"/>
+      <c r="BC67" s="50"/>
+      <c r="BD67" s="50"/>
+      <c r="BE67" s="50"/>
+      <c r="BF67" s="29"/>
+      <c r="BG67" s="50"/>
+      <c r="BH67" s="50"/>
+      <c r="BI67" s="50"/>
+      <c r="BJ67" s="50"/>
+      <c r="BK67" s="50"/>
+      <c r="BL67" s="50"/>
+      <c r="BM67" s="50"/>
+      <c r="BN67" s="29"/>
+    </row>
+    <row r="68" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY68" s="50"/>
+      <c r="AZ68" s="50"/>
+      <c r="BA68" s="50"/>
+      <c r="BB68" s="50"/>
+      <c r="BC68" s="50"/>
+      <c r="BD68" s="50"/>
+      <c r="BE68" s="50"/>
+      <c r="BF68" s="29"/>
+      <c r="BG68" s="50"/>
+      <c r="BH68" s="50"/>
+      <c r="BI68" s="50"/>
+      <c r="BJ68" s="50"/>
+      <c r="BK68" s="50"/>
+      <c r="BL68" s="50"/>
+      <c r="BM68" s="50"/>
+      <c r="BN68" s="29"/>
+    </row>
+    <row r="69" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY69" s="50"/>
+      <c r="AZ69" s="50"/>
+      <c r="BA69" s="50"/>
+      <c r="BB69" s="50"/>
+      <c r="BC69" s="50"/>
+      <c r="BD69" s="50"/>
+      <c r="BE69" s="50"/>
+      <c r="BF69" s="29"/>
+      <c r="BG69" s="50"/>
+      <c r="BH69" s="50"/>
+      <c r="BI69" s="50"/>
+      <c r="BJ69" s="50"/>
+      <c r="BK69" s="50"/>
+      <c r="BL69" s="50"/>
+      <c r="BM69" s="50"/>
+      <c r="BN69" s="29"/>
+    </row>
+    <row r="70" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY70" s="29"/>
+      <c r="AZ70" s="29"/>
+      <c r="BA70" s="29"/>
+      <c r="BB70" s="29"/>
+      <c r="BC70" s="29"/>
+      <c r="BD70" s="29"/>
+      <c r="BE70" s="29"/>
+      <c r="BF70" s="29"/>
+      <c r="BG70" s="29"/>
+      <c r="BH70" s="29"/>
+      <c r="BI70" s="29"/>
+      <c r="BJ70" s="29"/>
+      <c r="BK70" s="29"/>
+      <c r="BL70" s="29"/>
+      <c r="BM70" s="29"/>
+      <c r="BN70" s="29"/>
+    </row>
+    <row r="71" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY71" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ71" s="50"/>
+      <c r="BA71" s="50"/>
+      <c r="BB71" s="50"/>
+      <c r="BC71" s="50"/>
+      <c r="BD71" s="50"/>
+      <c r="BE71" s="50"/>
+      <c r="BF71" s="29"/>
+      <c r="BG71" s="29"/>
+      <c r="BH71" s="29"/>
+      <c r="BI71" s="29"/>
+      <c r="BJ71" s="29"/>
+      <c r="BK71" s="29"/>
+      <c r="BL71" s="29"/>
+      <c r="BM71" s="29"/>
+      <c r="BN71" s="29"/>
+    </row>
+    <row r="72" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY72" s="50"/>
+      <c r="AZ72" s="50"/>
+      <c r="BA72" s="50"/>
+      <c r="BB72" s="50"/>
+      <c r="BC72" s="50"/>
+      <c r="BD72" s="50"/>
+      <c r="BE72" s="50"/>
+      <c r="BF72" s="29"/>
+      <c r="BG72" s="29"/>
+      <c r="BH72" s="29"/>
+      <c r="BI72" s="29"/>
+      <c r="BJ72" s="29"/>
+      <c r="BK72" s="29"/>
+      <c r="BL72" s="29"/>
+      <c r="BM72" s="29"/>
+      <c r="BN72" s="29"/>
+    </row>
+    <row r="73" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY73" s="50"/>
+      <c r="AZ73" s="50"/>
+      <c r="BA73" s="50"/>
+      <c r="BB73" s="50"/>
+      <c r="BC73" s="50"/>
+      <c r="BD73" s="50"/>
+      <c r="BE73" s="50"/>
+      <c r="BF73" s="29"/>
+      <c r="BG73" s="29"/>
+      <c r="BH73" s="29"/>
+      <c r="BI73" s="29"/>
+      <c r="BJ73" s="29"/>
+      <c r="BK73" s="29"/>
+      <c r="BL73" s="29"/>
+      <c r="BM73" s="29"/>
+      <c r="BN73" s="29"/>
+    </row>
+    <row r="74" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY74" s="50"/>
+      <c r="AZ74" s="50"/>
+      <c r="BA74" s="50"/>
+      <c r="BB74" s="50"/>
+      <c r="BC74" s="50"/>
+      <c r="BD74" s="50"/>
+      <c r="BE74" s="50"/>
+      <c r="BF74" s="29"/>
+      <c r="BG74" s="29"/>
+      <c r="BH74" s="29"/>
+      <c r="BI74" s="29"/>
+      <c r="BJ74" s="29"/>
+      <c r="BK74" s="29"/>
+      <c r="BL74" s="29"/>
+      <c r="BM74" s="29"/>
+      <c r="BN74" s="29"/>
+    </row>
+    <row r="75" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY75" s="50"/>
+      <c r="AZ75" s="50"/>
+      <c r="BA75" s="50"/>
+      <c r="BB75" s="50"/>
+      <c r="BC75" s="50"/>
+      <c r="BD75" s="50"/>
+      <c r="BE75" s="50"/>
+      <c r="BF75" s="29"/>
+      <c r="BG75" s="29"/>
+      <c r="BH75" s="29"/>
+      <c r="BI75" s="29"/>
+      <c r="BJ75" s="29"/>
+      <c r="BK75" s="29"/>
+      <c r="BL75" s="29"/>
+      <c r="BM75" s="29"/>
+      <c r="BN75" s="29"/>
+    </row>
+    <row r="76" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY76" s="50"/>
+      <c r="AZ76" s="50"/>
+      <c r="BA76" s="50"/>
+      <c r="BB76" s="50"/>
+      <c r="BC76" s="50"/>
+      <c r="BD76" s="50"/>
+      <c r="BE76" s="50"/>
+      <c r="BF76" s="29"/>
+      <c r="BG76" s="29"/>
+      <c r="BH76" s="29"/>
+      <c r="BI76" s="29"/>
+      <c r="BJ76" s="29"/>
+      <c r="BK76" s="29"/>
+      <c r="BL76" s="29"/>
+      <c r="BM76" s="29"/>
+      <c r="BN76" s="29"/>
+    </row>
+    <row r="77" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY77" s="54"/>
+      <c r="AZ77" s="54"/>
+      <c r="BA77" s="54"/>
+      <c r="BB77" s="54"/>
+      <c r="BC77" s="54"/>
+      <c r="BD77" s="54"/>
+      <c r="BE77" s="29"/>
+      <c r="BF77" s="29"/>
+      <c r="BG77" s="29"/>
+      <c r="BH77" s="29"/>
+      <c r="BI77" s="29"/>
+      <c r="BJ77" s="29"/>
+      <c r="BK77" s="29"/>
+      <c r="BL77" s="29"/>
+      <c r="BM77" s="29"/>
+      <c r="BN77" s="29"/>
+    </row>
+    <row r="78" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY78" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ78" s="50"/>
+      <c r="BA78" s="50"/>
+      <c r="BB78" s="50"/>
+      <c r="BC78" s="50"/>
+      <c r="BD78" s="50"/>
+      <c r="BE78" s="50"/>
+      <c r="BF78" s="29"/>
+      <c r="BG78" s="29"/>
+      <c r="BH78" s="29"/>
+      <c r="BI78" s="29"/>
+      <c r="BJ78" s="29"/>
+      <c r="BK78" s="29"/>
+      <c r="BL78" s="29"/>
+      <c r="BM78" s="29"/>
+      <c r="BN78" s="29"/>
+    </row>
+    <row r="79" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY79" s="50"/>
+      <c r="AZ79" s="50"/>
+      <c r="BA79" s="50"/>
+      <c r="BB79" s="50"/>
+      <c r="BC79" s="50"/>
+      <c r="BD79" s="50"/>
+      <c r="BE79" s="50"/>
+      <c r="BF79" s="29"/>
+      <c r="BG79" s="29"/>
+      <c r="BH79" s="29"/>
+      <c r="BI79" s="29"/>
+      <c r="BJ79" s="29"/>
+      <c r="BK79" s="29"/>
+      <c r="BL79" s="29"/>
+      <c r="BM79" s="29"/>
+      <c r="BN79" s="29"/>
+    </row>
+    <row r="80" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY80" s="50"/>
+      <c r="AZ80" s="50"/>
+      <c r="BA80" s="50"/>
+      <c r="BB80" s="50"/>
+      <c r="BC80" s="50"/>
+      <c r="BD80" s="50"/>
+      <c r="BE80" s="50"/>
+      <c r="BF80" s="29"/>
+      <c r="BG80" s="29"/>
+      <c r="BH80" s="29"/>
+      <c r="BI80" s="29"/>
+      <c r="BJ80" s="29"/>
+      <c r="BK80" s="29"/>
+      <c r="BL80" s="29"/>
+      <c r="BM80" s="29"/>
+      <c r="BN80" s="29"/>
+    </row>
+    <row r="81" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY81" s="50"/>
+      <c r="AZ81" s="50"/>
+      <c r="BA81" s="50"/>
+      <c r="BB81" s="50"/>
+      <c r="BC81" s="50"/>
+      <c r="BD81" s="50"/>
+      <c r="BE81" s="50"/>
+      <c r="BF81" s="29"/>
+      <c r="BG81" s="29"/>
+      <c r="BH81" s="29"/>
+      <c r="BI81" s="29"/>
+      <c r="BJ81" s="29"/>
+      <c r="BK81" s="29"/>
+      <c r="BL81" s="29"/>
+      <c r="BM81" s="29"/>
+      <c r="BN81" s="29"/>
+    </row>
+    <row r="82" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY82" s="50"/>
+      <c r="AZ82" s="50"/>
+      <c r="BA82" s="50"/>
+      <c r="BB82" s="50"/>
+      <c r="BC82" s="50"/>
+      <c r="BD82" s="50"/>
+      <c r="BE82" s="50"/>
+      <c r="BF82" s="29"/>
+      <c r="BG82" s="29"/>
+      <c r="BH82" s="29"/>
+      <c r="BI82" s="29"/>
+      <c r="BJ82" s="29"/>
+      <c r="BK82" s="29"/>
+      <c r="BL82" s="29"/>
+      <c r="BM82" s="29"/>
+      <c r="BN82" s="29"/>
+    </row>
+    <row r="83" spans="51:66" x14ac:dyDescent="0.25">
+      <c r="AY83" s="50"/>
+      <c r="AZ83" s="50"/>
+      <c r="BA83" s="50"/>
+      <c r="BB83" s="50"/>
+      <c r="BC83" s="50"/>
+      <c r="BD83" s="50"/>
+      <c r="BE83" s="50"/>
+      <c r="BF83" s="32"/>
+      <c r="BG83" s="32"/>
+      <c r="BH83" s="32"/>
+      <c r="BI83" s="32"/>
+      <c r="BJ83" s="32"/>
+      <c r="BK83" s="32"/>
+      <c r="BL83" s="32"/>
+      <c r="BM83" s="32"/>
+      <c r="BN83" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C44:G45"/>
+    <mergeCell ref="L38:R43"/>
+    <mergeCell ref="D36:H39"/>
+    <mergeCell ref="K19:Q25"/>
+    <mergeCell ref="C27:I33"/>
+    <mergeCell ref="K27:Q33"/>
+    <mergeCell ref="X27:Y33"/>
+    <mergeCell ref="AA27:AB33"/>
+    <mergeCell ref="V3:AB7"/>
+    <mergeCell ref="C3:I9"/>
+    <mergeCell ref="K3:Q9"/>
+    <mergeCell ref="C11:I17"/>
+    <mergeCell ref="K11:Q17"/>
+    <mergeCell ref="C19:I25"/>
+    <mergeCell ref="X18:Y24"/>
+    <mergeCell ref="AA18:AB24"/>
+    <mergeCell ref="U10:V16"/>
+    <mergeCell ref="U18:V24"/>
+    <mergeCell ref="AA10:AB16"/>
+    <mergeCell ref="X10:Y16"/>
+    <mergeCell ref="S36:AB43"/>
+    <mergeCell ref="AY71:BE76"/>
+    <mergeCell ref="AY78:BE83"/>
+    <mergeCell ref="AY57:BE62"/>
+    <mergeCell ref="BG57:BM62"/>
+    <mergeCell ref="AY64:BE69"/>
+    <mergeCell ref="BG64:BM69"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/plan.xlsx
+++ b/plan/plan.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\nas_copy\homes\Docgui\Reconversion\BPREA\06 - Planif GIT\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976EDB8B-872E-48A8-B531-9CADDFD6A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713A76A0-5C5B-4777-8873-E62FE2B0810D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="630" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{16ADF3EB-A2C6-4F07-8557-221D48410A7D}"/>
+    <workbookView xWindow="28680" yWindow="630" windowWidth="29040" windowHeight="15840" xr2:uid="{16ADF3EB-A2C6-4F07-8557-221D48410A7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil3 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil3 (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil3 (2)" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Entrée du champ</t>
   </si>
@@ -132,12 +133,39 @@
   <si>
     <t>Ʌ    I     I     I     I     180 mètres    I     I     I     I        v</t>
   </si>
+  <si>
+    <t>Bloc 1 Patate</t>
+  </si>
+  <si>
+    <t>Bloc 2 Patate</t>
+  </si>
+  <si>
+    <t>Bloc 4 Brassicacées</t>
+  </si>
+  <si>
+    <t>Bloc 3 Alliacés</t>
+  </si>
+  <si>
+    <t>Bloc 5 Brassicacées</t>
+  </si>
+  <si>
+    <t>Bloc 6 Apiacées</t>
+  </si>
+  <si>
+    <t>Bloc 7 Cucurbitacées</t>
+  </si>
+  <si>
+    <t>Bloc 8 diversifié</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +234,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +313,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB482DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558537"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF8F00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -661,27 +739,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,12 +781,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -710,6 +788,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,15 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,14 +841,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -781,75 +1036,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -877,120 +1063,476 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB482DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558537"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2BF91B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB482DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558537"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBF8F00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD0CECE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2BF91B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB482DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558537"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2BF91B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB482DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF558537"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2BF91B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1304,6 +1846,1839 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34A5D12-ED35-4757-8EB1-96698A84E938}">
+  <dimension ref="B2:BP85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AV19" sqref="AU19:AV19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="21" width="4.7109375" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" customWidth="1"/>
+    <col min="25" max="26" width="4.7109375" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="29" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" customWidth="1"/>
+    <col min="31" max="33" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="D2" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="123"/>
+    </row>
+    <row r="4" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="19"/>
+    </row>
+    <row r="5" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="125"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="22"/>
+    </row>
+    <row r="6" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="125"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="22"/>
+    </row>
+    <row r="7" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="125"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="147"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="22"/>
+    </row>
+    <row r="8" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="125"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="132"/>
+      <c r="AE8" s="22"/>
+    </row>
+    <row r="9" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="125"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="151"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="147"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="22"/>
+    </row>
+    <row r="10" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="125"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="22"/>
+    </row>
+    <row r="11" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="125"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="150"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="22"/>
+    </row>
+    <row r="12" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="125"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="22"/>
+    </row>
+    <row r="13" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="125"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="161" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="22"/>
+    </row>
+    <row r="14" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="125"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="22"/>
+    </row>
+    <row r="15" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="125"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="156"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="22"/>
+    </row>
+    <row r="16" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="125"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="165"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="156"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="156"/>
+      <c r="Q16" s="156"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="22"/>
+    </row>
+    <row r="17" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="125"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="155"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="157"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="22"/>
+    </row>
+    <row r="18" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="125"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="22"/>
+    </row>
+    <row r="19" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="125"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="22"/>
+      <c r="AL19" s="136"/>
+    </row>
+    <row r="20" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="125"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="22"/>
+      <c r="AN20" s="137"/>
+    </row>
+    <row r="21" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="125"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="188" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
+      <c r="S21" s="190"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="22"/>
+      <c r="AR21" s="139"/>
+    </row>
+    <row r="22" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="125"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="192"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="192"/>
+      <c r="R22" s="192"/>
+      <c r="S22" s="193"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="22"/>
+    </row>
+    <row r="23" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="125"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="192"/>
+      <c r="O23" s="192"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="192"/>
+      <c r="S23" s="193"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="22"/>
+    </row>
+    <row r="24" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="125"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="192"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="192"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="22"/>
+    </row>
+    <row r="25" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="125"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="192"/>
+      <c r="O25" s="192"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="193"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="22"/>
+    </row>
+    <row r="26" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="125"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="192"/>
+      <c r="O26" s="192"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="193"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="22"/>
+    </row>
+    <row r="27" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="125"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
+      <c r="R27" s="195"/>
+      <c r="S27" s="196"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="22"/>
+      <c r="AK27" s="140"/>
+    </row>
+    <row r="28" spans="2:44" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="125"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="22"/>
+      <c r="AQ28" s="138"/>
+    </row>
+    <row r="29" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="125"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="179" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="181"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="22"/>
+    </row>
+    <row r="30" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="125"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="22"/>
+    </row>
+    <row r="31" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="125"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="22"/>
+    </row>
+    <row r="32" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="125"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="22"/>
+      <c r="AL32" s="141"/>
+    </row>
+    <row r="33" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="125"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="22"/>
+    </row>
+    <row r="34" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="125"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="174"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="183"/>
+      <c r="Q34" s="183"/>
+      <c r="R34" s="183"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="22"/>
+    </row>
+    <row r="35" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="125"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="186"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="22"/>
+    </row>
+    <row r="36" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="125"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="22"/>
+    </row>
+    <row r="37" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="125"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="22"/>
+    </row>
+    <row r="38" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="125"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="90"/>
+      <c r="H38" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="23"/>
+      <c r="AD38" s="23"/>
+      <c r="AE38" s="22"/>
+    </row>
+    <row r="39" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="125"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="23"/>
+      <c r="AE39" s="22"/>
+    </row>
+    <row r="40" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="125"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="23"/>
+      <c r="AD40" s="23"/>
+      <c r="AE40" s="22"/>
+    </row>
+    <row r="41" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="125"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="114"/>
+      <c r="AE41" s="22"/>
+    </row>
+    <row r="42" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="125"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="115"/>
+      <c r="AC42" s="116"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="22"/>
+    </row>
+    <row r="43" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="125"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="115"/>
+      <c r="AC43" s="116"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="22"/>
+    </row>
+    <row r="44" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="125"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="115"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="117"/>
+      <c r="AE44" s="22"/>
+    </row>
+    <row r="45" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="125"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="79"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="118"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="120"/>
+      <c r="AE45" s="22"/>
+    </row>
+    <row r="46" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="125"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="21"/>
+      <c r="AE46" s="22"/>
+    </row>
+    <row r="47" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="126"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="27"/>
+    </row>
+    <row r="59" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA59" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB59" s="57"/>
+      <c r="BC59" s="57"/>
+      <c r="BD59" s="57"/>
+      <c r="BE59" s="57"/>
+      <c r="BF59" s="57"/>
+      <c r="BG59" s="57"/>
+      <c r="BI59" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ59" s="57"/>
+      <c r="BK59" s="57"/>
+      <c r="BL59" s="57"/>
+      <c r="BM59" s="57"/>
+      <c r="BN59" s="57"/>
+      <c r="BO59" s="57"/>
+    </row>
+    <row r="60" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="57"/>
+      <c r="BC60" s="57"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="57"/>
+      <c r="BF60" s="57"/>
+      <c r="BG60" s="57"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="57"/>
+      <c r="BK60" s="57"/>
+      <c r="BL60" s="57"/>
+      <c r="BM60" s="57"/>
+      <c r="BN60" s="57"/>
+      <c r="BO60" s="57"/>
+    </row>
+    <row r="61" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA61" s="57"/>
+      <c r="BB61" s="57"/>
+      <c r="BC61" s="57"/>
+      <c r="BD61" s="57"/>
+      <c r="BE61" s="57"/>
+      <c r="BF61" s="57"/>
+      <c r="BG61" s="57"/>
+      <c r="BI61" s="57"/>
+      <c r="BJ61" s="57"/>
+      <c r="BK61" s="57"/>
+      <c r="BL61" s="57"/>
+      <c r="BM61" s="57"/>
+      <c r="BN61" s="57"/>
+      <c r="BO61" s="57"/>
+    </row>
+    <row r="62" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA62" s="57"/>
+      <c r="BB62" s="57"/>
+      <c r="BC62" s="57"/>
+      <c r="BD62" s="57"/>
+      <c r="BE62" s="57"/>
+      <c r="BF62" s="57"/>
+      <c r="BG62" s="57"/>
+      <c r="BI62" s="57"/>
+      <c r="BJ62" s="57"/>
+      <c r="BK62" s="57"/>
+      <c r="BL62" s="57"/>
+      <c r="BM62" s="57"/>
+      <c r="BN62" s="57"/>
+      <c r="BO62" s="57"/>
+    </row>
+    <row r="63" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA63" s="57"/>
+      <c r="BB63" s="57"/>
+      <c r="BC63" s="57"/>
+      <c r="BD63" s="57"/>
+      <c r="BE63" s="57"/>
+      <c r="BF63" s="57"/>
+      <c r="BG63" s="57"/>
+      <c r="BI63" s="57"/>
+      <c r="BJ63" s="57"/>
+      <c r="BK63" s="57"/>
+      <c r="BL63" s="57"/>
+      <c r="BM63" s="57"/>
+      <c r="BN63" s="57"/>
+      <c r="BO63" s="57"/>
+    </row>
+    <row r="64" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA64" s="57"/>
+      <c r="BB64" s="57"/>
+      <c r="BC64" s="57"/>
+      <c r="BD64" s="57"/>
+      <c r="BE64" s="57"/>
+      <c r="BF64" s="57"/>
+      <c r="BG64" s="57"/>
+      <c r="BI64" s="57"/>
+      <c r="BJ64" s="57"/>
+      <c r="BK64" s="57"/>
+      <c r="BL64" s="57"/>
+      <c r="BM64" s="57"/>
+      <c r="BN64" s="57"/>
+      <c r="BO64" s="57"/>
+    </row>
+    <row r="66" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA66" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB66" s="57"/>
+      <c r="BC66" s="57"/>
+      <c r="BD66" s="57"/>
+      <c r="BE66" s="57"/>
+      <c r="BF66" s="57"/>
+      <c r="BG66" s="57"/>
+      <c r="BI66" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ66" s="57"/>
+      <c r="BK66" s="57"/>
+      <c r="BL66" s="57"/>
+      <c r="BM66" s="57"/>
+      <c r="BN66" s="57"/>
+      <c r="BO66" s="57"/>
+    </row>
+    <row r="67" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA67" s="57"/>
+      <c r="BB67" s="57"/>
+      <c r="BC67" s="57"/>
+      <c r="BD67" s="57"/>
+      <c r="BE67" s="57"/>
+      <c r="BF67" s="57"/>
+      <c r="BG67" s="57"/>
+      <c r="BI67" s="57"/>
+      <c r="BJ67" s="57"/>
+      <c r="BK67" s="57"/>
+      <c r="BL67" s="57"/>
+      <c r="BM67" s="57"/>
+      <c r="BN67" s="57"/>
+      <c r="BO67" s="57"/>
+    </row>
+    <row r="68" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA68" s="57"/>
+      <c r="BB68" s="57"/>
+      <c r="BC68" s="57"/>
+      <c r="BD68" s="57"/>
+      <c r="BE68" s="57"/>
+      <c r="BF68" s="57"/>
+      <c r="BG68" s="57"/>
+      <c r="BI68" s="57"/>
+      <c r="BJ68" s="57"/>
+      <c r="BK68" s="57"/>
+      <c r="BL68" s="57"/>
+      <c r="BM68" s="57"/>
+      <c r="BN68" s="57"/>
+      <c r="BO68" s="57"/>
+    </row>
+    <row r="69" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA69" s="57"/>
+      <c r="BB69" s="57"/>
+      <c r="BC69" s="57"/>
+      <c r="BD69" s="57"/>
+      <c r="BE69" s="57"/>
+      <c r="BF69" s="57"/>
+      <c r="BG69" s="57"/>
+      <c r="BI69" s="57"/>
+      <c r="BJ69" s="57"/>
+      <c r="BK69" s="57"/>
+      <c r="BL69" s="57"/>
+      <c r="BM69" s="57"/>
+      <c r="BN69" s="57"/>
+      <c r="BO69" s="57"/>
+    </row>
+    <row r="70" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA70" s="57"/>
+      <c r="BB70" s="57"/>
+      <c r="BC70" s="57"/>
+      <c r="BD70" s="57"/>
+      <c r="BE70" s="57"/>
+      <c r="BF70" s="57"/>
+      <c r="BG70" s="57"/>
+      <c r="BI70" s="57"/>
+      <c r="BJ70" s="57"/>
+      <c r="BK70" s="57"/>
+      <c r="BL70" s="57"/>
+      <c r="BM70" s="57"/>
+      <c r="BN70" s="57"/>
+      <c r="BO70" s="57"/>
+    </row>
+    <row r="71" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA71" s="57"/>
+      <c r="BB71" s="57"/>
+      <c r="BC71" s="57"/>
+      <c r="BD71" s="57"/>
+      <c r="BE71" s="57"/>
+      <c r="BF71" s="57"/>
+      <c r="BG71" s="57"/>
+      <c r="BI71" s="57"/>
+      <c r="BJ71" s="57"/>
+      <c r="BK71" s="57"/>
+      <c r="BL71" s="57"/>
+      <c r="BM71" s="57"/>
+      <c r="BN71" s="57"/>
+      <c r="BO71" s="57"/>
+    </row>
+    <row r="73" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA73" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB73" s="57"/>
+      <c r="BC73" s="57"/>
+      <c r="BD73" s="57"/>
+      <c r="BE73" s="57"/>
+      <c r="BF73" s="57"/>
+      <c r="BG73" s="57"/>
+    </row>
+    <row r="74" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA74" s="57"/>
+      <c r="BB74" s="57"/>
+      <c r="BC74" s="57"/>
+      <c r="BD74" s="57"/>
+      <c r="BE74" s="57"/>
+      <c r="BF74" s="57"/>
+      <c r="BG74" s="57"/>
+    </row>
+    <row r="75" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA75" s="57"/>
+      <c r="BB75" s="57"/>
+      <c r="BC75" s="57"/>
+      <c r="BD75" s="57"/>
+      <c r="BE75" s="57"/>
+      <c r="BF75" s="57"/>
+      <c r="BG75" s="57"/>
+    </row>
+    <row r="76" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA76" s="57"/>
+      <c r="BB76" s="57"/>
+      <c r="BC76" s="57"/>
+      <c r="BD76" s="57"/>
+      <c r="BE76" s="57"/>
+      <c r="BF76" s="57"/>
+      <c r="BG76" s="57"/>
+    </row>
+    <row r="77" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA77" s="57"/>
+      <c r="BB77" s="57"/>
+      <c r="BC77" s="57"/>
+      <c r="BD77" s="57"/>
+      <c r="BE77" s="57"/>
+      <c r="BF77" s="57"/>
+      <c r="BG77" s="57"/>
+    </row>
+    <row r="78" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA78" s="57"/>
+      <c r="BB78" s="57"/>
+      <c r="BC78" s="57"/>
+      <c r="BD78" s="57"/>
+      <c r="BE78" s="57"/>
+      <c r="BF78" s="57"/>
+      <c r="BG78" s="57"/>
+    </row>
+    <row r="80" spans="53:67" x14ac:dyDescent="0.25">
+      <c r="BA80" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB80" s="57"/>
+      <c r="BC80" s="57"/>
+      <c r="BD80" s="57"/>
+      <c r="BE80" s="57"/>
+      <c r="BF80" s="57"/>
+      <c r="BG80" s="57"/>
+    </row>
+    <row r="81" spans="53:68" x14ac:dyDescent="0.25">
+      <c r="BA81" s="57"/>
+      <c r="BB81" s="57"/>
+      <c r="BC81" s="57"/>
+      <c r="BD81" s="57"/>
+      <c r="BE81" s="57"/>
+      <c r="BF81" s="57"/>
+      <c r="BG81" s="57"/>
+    </row>
+    <row r="82" spans="53:68" x14ac:dyDescent="0.25">
+      <c r="BA82" s="57"/>
+      <c r="BB82" s="57"/>
+      <c r="BC82" s="57"/>
+      <c r="BD82" s="57"/>
+      <c r="BE82" s="57"/>
+      <c r="BF82" s="57"/>
+      <c r="BG82" s="57"/>
+    </row>
+    <row r="83" spans="53:68" x14ac:dyDescent="0.25">
+      <c r="BA83" s="57"/>
+      <c r="BB83" s="57"/>
+      <c r="BC83" s="57"/>
+      <c r="BD83" s="57"/>
+      <c r="BE83" s="57"/>
+      <c r="BF83" s="57"/>
+      <c r="BG83" s="57"/>
+    </row>
+    <row r="84" spans="53:68" x14ac:dyDescent="0.25">
+      <c r="BA84" s="57"/>
+      <c r="BB84" s="57"/>
+      <c r="BC84" s="57"/>
+      <c r="BD84" s="57"/>
+      <c r="BE84" s="57"/>
+      <c r="BF84" s="57"/>
+      <c r="BG84" s="57"/>
+    </row>
+    <row r="85" spans="53:68" x14ac:dyDescent="0.25">
+      <c r="BA85" s="57"/>
+      <c r="BB85" s="57"/>
+      <c r="BC85" s="57"/>
+      <c r="BD85" s="57"/>
+      <c r="BE85" s="57"/>
+      <c r="BF85" s="57"/>
+      <c r="BG85" s="57"/>
+      <c r="BH85" s="15"/>
+      <c r="BI85" s="15"/>
+      <c r="BJ85" s="15"/>
+      <c r="BK85" s="15"/>
+      <c r="BL85" s="15"/>
+      <c r="BM85" s="15"/>
+      <c r="BN85" s="15"/>
+      <c r="BO85" s="15"/>
+      <c r="BP85" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="BA59:BG64"/>
+    <mergeCell ref="BI59:BO64"/>
+    <mergeCell ref="BA66:BG71"/>
+    <mergeCell ref="BI66:BO71"/>
+    <mergeCell ref="BA73:BG78"/>
+    <mergeCell ref="BA80:BG85"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="H38:J43"/>
+    <mergeCell ref="U39:AA45"/>
+    <mergeCell ref="N40:T45"/>
+    <mergeCell ref="AB41:AD45"/>
+    <mergeCell ref="E46:I47"/>
+    <mergeCell ref="W20:X26"/>
+    <mergeCell ref="Z20:AA26"/>
+    <mergeCell ref="AC20:AD26"/>
+    <mergeCell ref="E21:K27"/>
+    <mergeCell ref="M21:S27"/>
+    <mergeCell ref="E29:K35"/>
+    <mergeCell ref="M29:S35"/>
+    <mergeCell ref="Z29:AA35"/>
+    <mergeCell ref="AC29:AD35"/>
+    <mergeCell ref="D2:AE2"/>
+    <mergeCell ref="B4:B47"/>
+    <mergeCell ref="E5:K11"/>
+    <mergeCell ref="M5:S11"/>
+    <mergeCell ref="X5:AD9"/>
+    <mergeCell ref="W12:X18"/>
+    <mergeCell ref="Z12:AA18"/>
+    <mergeCell ref="AC12:AD18"/>
+    <mergeCell ref="E13:K19"/>
+    <mergeCell ref="M13:S19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CCD9DD-BF32-4B35-BFB6-BD9E7663A4A2}">
   <dimension ref="B2:J37"/>
   <sheetViews>
@@ -1314,19 +3689,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
@@ -1339,277 +3714,277 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="G5" s="29" t="s">
+      <c r="E5" s="29"/>
+      <c r="G5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="29"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="4"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="30"/>
+      <c r="E10" s="29"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="G11" s="29" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="G11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="30"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4"/>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="34"/>
+      <c r="E15" s="29"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="33"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="G17" s="29" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="G17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="30"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="34"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="4"/>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="4"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="30"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="34"/>
+      <c r="E21" s="29"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="33"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="G23" s="29" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="30"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="29"/>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="34"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="4"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="4"/>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="30"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="29"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="34"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="36"/>
+      <c r="D28" s="38"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="36"/>
-      <c r="F29" s="29" t="s">
+      <c r="D29" s="38"/>
+      <c r="F29" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="I29" s="35" t="s">
+      <c r="G29" s="29"/>
+      <c r="I29" s="37" t="s">
         <v>4</v>
       </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="37"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="I30" s="36"/>
+      <c r="D30" s="39"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="4"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="I31" s="36"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="4"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
-      <c r="I32" s="37"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="I32" s="39"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="4"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="4"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1619,21 +3994,22 @@
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="30"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G5:H8"/>
     <mergeCell ref="C35:D37"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="B3:B34"/>
@@ -1650,13 +4026,12 @@
     <mergeCell ref="D15:E18"/>
     <mergeCell ref="D10:E13"/>
     <mergeCell ref="D5:E8"/>
-    <mergeCell ref="G5:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F13F396-F96A-49EA-8021-E32953AD928A}">
   <dimension ref="B5:AS12"/>
   <sheetViews>
@@ -1736,7 +4111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D0565-200F-4204-914E-EAF3B8F03BFD}">
   <dimension ref="B2:AR29"/>
   <sheetViews>
@@ -1750,34 +4125,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
@@ -1809,548 +4184,548 @@
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="K5" s="44" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="K5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="46"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="55"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="46"/>
       <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="61"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="49"/>
       <c r="AA6" s="13"/>
-      <c r="AK6" s="44" t="s">
+      <c r="AK6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="46"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="52"/>
     </row>
     <row r="7" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="52"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="58"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="58"/>
       <c r="AA7" s="13"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="49"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="55"/>
     </row>
     <row r="8" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B8" s="12"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="58"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="46"/>
       <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="61"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="58"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="49"/>
       <c r="AA9" s="13"/>
-      <c r="AD9" s="44" t="s">
+      <c r="AD9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="46"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="52"/>
     </row>
     <row r="10" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
       <c r="AA10" s="13"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="51"/>
-      <c r="AH10" s="51"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="52"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="58"/>
     </row>
     <row r="11" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="55"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="46"/>
       <c r="AA11" s="13"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="52"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="58"/>
     </row>
     <row r="12" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="K12" s="44" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="K12" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="61"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="49"/>
       <c r="AA12" s="13"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="52"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="58"/>
     </row>
     <row r="13" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="52"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
       <c r="AA13" s="13"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="52"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="58"/>
     </row>
     <row r="14" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="52"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="46"/>
       <c r="AA14" s="13"/>
-      <c r="AD14" s="47"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="49"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="55"/>
     </row>
     <row r="15" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="52"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="61"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="49"/>
       <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="52"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="58"/>
       <c r="AA16" s="13"/>
-      <c r="AD16" s="53" t="s">
+      <c r="AD16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="55"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="46"/>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="55"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="46"/>
       <c r="AA17" s="13"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="58"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="61"/>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="61"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="49"/>
       <c r="AA18" s="13"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="58"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="61"/>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="AA19" s="13"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="58"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="61"/>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="55"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="46"/>
       <c r="AA20" s="13"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="58"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="61"/>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="61"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="49"/>
       <c r="AA21" s="13"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="58"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="61"/>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
       <c r="AA22" s="13"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="61"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="49"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="55"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="46"/>
       <c r="AA23" s="13"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="49"/>
       <c r="AA24" s="13"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
       <c r="AA25" s="13"/>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="55"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="46"/>
       <c r="AA26" s="13"/>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="61"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="49"/>
       <c r="AA27" s="13"/>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
@@ -2387,6 +4762,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S20:Z21"/>
     <mergeCell ref="S26:Z27"/>
     <mergeCell ref="AK6:AR7"/>
     <mergeCell ref="AD9:AJ14"/>
@@ -2403,17 +4779,16 @@
     <mergeCell ref="C5:I10"/>
     <mergeCell ref="K12:Q17"/>
     <mergeCell ref="C12:I17"/>
-    <mergeCell ref="S20:Z21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F57F5BB-342A-4909-9182-1EA44E81E058}">
   <dimension ref="B2:BP85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E46" sqref="E46:I47"/>
     </sheetView>
   </sheetViews>
@@ -2433,39 +4808,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="64"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="123"/>
     </row>
     <row r="4" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="124" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="17"/>
@@ -2498,184 +4873,184 @@
       <c r="AE4" s="19"/>
     </row>
     <row r="5" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="66"/>
+      <c r="B5" s="125"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="102"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="82"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
-      <c r="X5" s="91" t="s">
+      <c r="X5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="93"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="129"/>
       <c r="AE5" s="22"/>
     </row>
     <row r="6" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="66"/>
+      <c r="B6" s="125"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="105"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="85"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="105"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="85"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="96"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="132"/>
       <c r="AE6" s="22"/>
     </row>
     <row r="7" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="66"/>
+      <c r="B7" s="125"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="105"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="85"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="96"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="131"/>
+      <c r="Z7" s="131"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="131"/>
+      <c r="AD7" s="132"/>
       <c r="AE7" s="22"/>
     </row>
     <row r="8" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="66"/>
+      <c r="B8" s="125"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="105"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="85"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="96"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="131"/>
+      <c r="Z8" s="131"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="131"/>
+      <c r="AC8" s="131"/>
+      <c r="AD8" s="132"/>
       <c r="AE8" s="22"/>
     </row>
     <row r="9" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="66"/>
+      <c r="B9" s="125"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
       <c r="L9" s="21"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="105"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="85"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="99"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="134"/>
+      <c r="Z9" s="134"/>
+      <c r="AA9" s="134"/>
+      <c r="AB9" s="134"/>
+      <c r="AC9" s="134"/>
+      <c r="AD9" s="135"/>
       <c r="AE9" s="22"/>
     </row>
     <row r="10" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="66"/>
+      <c r="B10" s="125"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="105"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="105"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="85"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
       <c r="V10" s="21"/>
@@ -2690,23 +5065,23 @@
       <c r="AE10" s="22"/>
     </row>
     <row r="11" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="66"/>
+      <c r="B11" s="125"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="108"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="88"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -2721,7 +5096,7 @@
       <c r="AE11" s="22"/>
     </row>
     <row r="12" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="66"/>
+      <c r="B12" s="125"/>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -2741,230 +5116,230 @@
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
-      <c r="W12" s="85" t="s">
+      <c r="W12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="X12" s="86"/>
+      <c r="X12" s="63"/>
       <c r="Y12" s="21"/>
-      <c r="Z12" s="85" t="s">
+      <c r="Z12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" s="86"/>
+      <c r="AA12" s="63"/>
       <c r="AB12" s="21"/>
-      <c r="AC12" s="85" t="s">
+      <c r="AC12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AD12" s="86"/>
+      <c r="AD12" s="63"/>
       <c r="AE12" s="22"/>
     </row>
     <row r="13" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="66"/>
+      <c r="B13" s="125"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="100" t="s">
+      <c r="M13" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="102"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="82"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="88"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="65"/>
       <c r="Y13" s="21"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="88"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="65"/>
       <c r="AB13" s="21"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="88"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="65"/>
       <c r="AE13" s="22"/>
     </row>
     <row r="14" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="66"/>
+      <c r="B14" s="125"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="105"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="105"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="85"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="88"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="65"/>
       <c r="Y14" s="21"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="88"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="65"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="88"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="65"/>
       <c r="AE14" s="22"/>
     </row>
     <row r="15" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="66"/>
+      <c r="B15" s="125"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="105"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="85"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="88"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="65"/>
       <c r="Y15" s="21"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="88"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="65"/>
       <c r="AB15" s="21"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="88"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="65"/>
       <c r="AE15" s="22"/>
     </row>
     <row r="16" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="66"/>
+      <c r="B16" s="125"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="105"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="105"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="85"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="88"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="65"/>
       <c r="Y16" s="21"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="88"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="65"/>
       <c r="AB16" s="21"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="88"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="65"/>
       <c r="AE16" s="22"/>
     </row>
     <row r="17" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="66"/>
+      <c r="B17" s="125"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="105"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="105"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="85"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="88"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="65"/>
       <c r="Y17" s="21"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="88"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="65"/>
       <c r="AB17" s="21"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="88"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="65"/>
       <c r="AE17" s="22"/>
     </row>
     <row r="18" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="66"/>
+      <c r="B18" s="125"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="105"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="85"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="90"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="67"/>
       <c r="Y18" s="21"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="67"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="90"/>
+      <c r="AC18" s="66"/>
+      <c r="AD18" s="67"/>
       <c r="AE18" s="22"/>
     </row>
     <row r="19" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="66"/>
+      <c r="B19" s="125"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="108"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="88"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -2979,7 +5354,7 @@
       <c r="AE19" s="22"/>
     </row>
     <row r="20" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="66"/>
+      <c r="B20" s="125"/>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -2999,230 +5374,230 @@
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
-      <c r="W20" s="85" t="s">
+      <c r="W20" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="X20" s="86"/>
+      <c r="X20" s="63"/>
       <c r="Y20" s="21"/>
-      <c r="Z20" s="85" t="s">
+      <c r="Z20" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AA20" s="86"/>
+      <c r="AA20" s="63"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="85" t="s">
+      <c r="AC20" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AD20" s="86"/>
+      <c r="AD20" s="63"/>
       <c r="AE20" s="22"/>
     </row>
     <row r="21" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="66"/>
+      <c r="B21" s="125"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="100" t="s">
+      <c r="M21" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="102"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="82"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="88"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="65"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="88"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="65"/>
       <c r="AB21" s="21"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="88"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="65"/>
       <c r="AE21" s="22"/>
     </row>
     <row r="22" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="66"/>
+      <c r="B22" s="125"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="105"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="105"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="85"/>
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="88"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="65"/>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="88"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="65"/>
       <c r="AB22" s="21"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="88"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="65"/>
       <c r="AE22" s="22"/>
     </row>
     <row r="23" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="66"/>
+      <c r="B23" s="125"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="105"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="105"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="85"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="88"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="65"/>
       <c r="Y23" s="21"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="88"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="65"/>
       <c r="AB23" s="21"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="88"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="65"/>
       <c r="AE23" s="22"/>
     </row>
     <row r="24" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="66"/>
+      <c r="B24" s="125"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="105"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="88"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="65"/>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="88"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="65"/>
       <c r="AB24" s="21"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="88"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="65"/>
       <c r="AE24" s="22"/>
     </row>
     <row r="25" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="66"/>
+      <c r="B25" s="125"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="105"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="105"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="85"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="88"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="65"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="88"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="65"/>
       <c r="AB25" s="21"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="88"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="65"/>
       <c r="AE25" s="22"/>
     </row>
     <row r="26" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="66"/>
+      <c r="B26" s="125"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="105"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="105"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="85"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="90"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="67"/>
       <c r="Y26" s="21"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="90"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
       <c r="AB26" s="21"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="90"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="67"/>
       <c r="AE26" s="22"/>
     </row>
     <row r="27" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="66"/>
+      <c r="B27" s="125"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="88"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="108"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="88"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
@@ -3237,7 +5612,7 @@
       <c r="AE27" s="22"/>
     </row>
     <row r="28" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="66"/>
+      <c r="B28" s="125"/>
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -3268,233 +5643,233 @@
       <c r="AE28" s="22"/>
     </row>
     <row r="29" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
+      <c r="B29" s="125"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="100" t="s">
+      <c r="M29" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="102"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="82"/>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
-      <c r="Z29" s="85" t="s">
+      <c r="Z29" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" s="86"/>
+      <c r="AA29" s="63"/>
       <c r="AB29" s="21"/>
-      <c r="AC29" s="85" t="s">
+      <c r="AC29" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AD29" s="86"/>
+      <c r="AD29" s="63"/>
       <c r="AE29" s="22"/>
     </row>
     <row r="30" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="66"/>
+      <c r="B30" s="125"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="105"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="105"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="85"/>
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
       <c r="X30" s="21"/>
       <c r="Y30" s="21"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="88"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="65"/>
       <c r="AB30" s="21"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="88"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="65"/>
       <c r="AE30" s="22"/>
     </row>
     <row r="31" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="66"/>
+      <c r="B31" s="125"/>
       <c r="C31" s="13"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="105"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="105"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="85"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
       <c r="X31" s="21"/>
       <c r="Y31" s="21"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="88"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="65"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="88"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="65"/>
       <c r="AE31" s="22"/>
     </row>
     <row r="32" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="66"/>
+      <c r="B32" s="125"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="105"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
       <c r="L32" s="21"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="105"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="85"/>
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
       <c r="Y32" s="21"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="88"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="65"/>
       <c r="AB32" s="21"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="88"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="65"/>
       <c r="AE32" s="22"/>
     </row>
     <row r="33" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="66"/>
+      <c r="B33" s="125"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="105"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
       <c r="L33" s="21"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="105"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="85"/>
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="88"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="65"/>
       <c r="AB33" s="21"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="88"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="65"/>
       <c r="AE33" s="22"/>
     </row>
     <row r="34" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="66"/>
+      <c r="B34" s="125"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="105"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
       <c r="L34" s="21"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="105"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="85"/>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="21"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="88"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="65"/>
       <c r="AB34" s="21"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="88"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="65"/>
       <c r="AE34" s="22"/>
     </row>
     <row r="35" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="66"/>
+      <c r="B35" s="125"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="108"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
       <c r="L35" s="21"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="107"/>
-      <c r="Q35" s="107"/>
-      <c r="R35" s="107"/>
-      <c r="S35" s="108"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="88"/>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="90"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="67"/>
       <c r="AB35" s="21"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="90"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="67"/>
       <c r="AE35" s="22"/>
     </row>
     <row r="36" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B36" s="66"/>
+      <c r="B36" s="125"/>
       <c r="D36" s="20"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
@@ -3525,7 +5900,7 @@
       <c r="AE36" s="22"/>
     </row>
     <row r="37" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="66"/>
+      <c r="B37" s="125"/>
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -3556,18 +5931,18 @@
       <c r="AE37" s="22"/>
     </row>
     <row r="38" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="66"/>
+      <c r="B38" s="125"/>
       <c r="D38" s="20"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="116"/>
-      <c r="H38" s="121" t="s">
+      <c r="G38" s="90"/>
+      <c r="H38" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="I38" s="122"/>
-      <c r="J38" s="123"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
@@ -3591,14 +5966,14 @@
       <c r="AE38" s="22"/>
     </row>
     <row r="39" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="66"/>
+      <c r="B39" s="125"/>
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="126"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
@@ -3609,150 +5984,150 @@
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
-      <c r="U39" s="68" t="s">
+      <c r="U39" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="70"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="105"/>
+      <c r="Y39" s="105"/>
+      <c r="Z39" s="105"/>
+      <c r="AA39" s="106"/>
       <c r="AB39" s="23"/>
       <c r="AC39" s="23"/>
       <c r="AD39" s="23"/>
       <c r="AE39" s="22"/>
     </row>
     <row r="40" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B40" s="66"/>
+      <c r="B40" s="125"/>
       <c r="D40" s="20"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="126"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="109" t="s">
+      <c r="N40" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="73"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="108"/>
+      <c r="X40" s="108"/>
+      <c r="Y40" s="108"/>
+      <c r="Z40" s="108"/>
+      <c r="AA40" s="109"/>
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
       <c r="AD40" s="23"/>
       <c r="AE40" s="22"/>
     </row>
     <row r="41" spans="2:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="66"/>
+      <c r="B41" s="125"/>
       <c r="D41" s="20"/>
       <c r="E41" s="21"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="126"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="112"/>
-      <c r="Q41" s="112"/>
-      <c r="R41" s="112"/>
-      <c r="S41" s="112"/>
-      <c r="T41" s="112"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="76" t="s">
+      <c r="N41" s="76"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="108"/>
+      <c r="X41" s="108"/>
+      <c r="Y41" s="108"/>
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="AC41" s="77"/>
-      <c r="AD41" s="78"/>
+      <c r="AC41" s="113"/>
+      <c r="AD41" s="114"/>
       <c r="AE41" s="22"/>
     </row>
     <row r="42" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B42" s="66"/>
+      <c r="B42" s="125"/>
       <c r="D42" s="20"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="24"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="126"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
-      <c r="Q42" s="112"/>
-      <c r="R42" s="112"/>
-      <c r="S42" s="112"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="79"/>
-      <c r="AC42" s="80"/>
-      <c r="AD42" s="81"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="77"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="108"/>
+      <c r="X42" s="108"/>
+      <c r="Y42" s="108"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="115"/>
+      <c r="AC42" s="116"/>
+      <c r="AD42" s="117"/>
       <c r="AE42" s="22"/>
     </row>
     <row r="43" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B43" s="66"/>
+      <c r="B43" s="125"/>
       <c r="D43" s="20"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="129"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="112"/>
-      <c r="Q43" s="112"/>
-      <c r="R43" s="112"/>
-      <c r="S43" s="112"/>
-      <c r="T43" s="112"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="79"/>
-      <c r="AC43" s="80"/>
-      <c r="AD43" s="81"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="107"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="108"/>
+      <c r="X43" s="108"/>
+      <c r="Y43" s="108"/>
+      <c r="Z43" s="108"/>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="115"/>
+      <c r="AC43" s="116"/>
+      <c r="AD43" s="117"/>
       <c r="AE43" s="22"/>
     </row>
     <row r="44" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="66"/>
+      <c r="B44" s="125"/>
       <c r="D44" s="20"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
@@ -3763,27 +6138,27 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="112"/>
-      <c r="S44" s="112"/>
-      <c r="T44" s="112"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="79"/>
-      <c r="AC44" s="80"/>
-      <c r="AD44" s="81"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="77"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="107"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="108"/>
+      <c r="X44" s="108"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="108"/>
+      <c r="AA44" s="108"/>
+      <c r="AB44" s="115"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="117"/>
       <c r="AE44" s="22"/>
     </row>
     <row r="45" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="66"/>
+      <c r="B45" s="125"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
@@ -3794,35 +6169,35 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="114"/>
-      <c r="S45" s="114"/>
-      <c r="T45" s="114"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
-      <c r="AA45" s="75"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="83"/>
-      <c r="AD45" s="84"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="79"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="111"/>
+      <c r="X45" s="111"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="111"/>
+      <c r="AA45" s="111"/>
+      <c r="AB45" s="118"/>
+      <c r="AC45" s="119"/>
+      <c r="AD45" s="120"/>
       <c r="AE45" s="22"/>
     </row>
     <row r="46" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B46" s="66"/>
+      <c r="B46" s="125"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="130" t="s">
+      <c r="E46" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="132"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="70"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
@@ -3847,13 +6222,13 @@
       <c r="AE46" s="22"/>
     </row>
     <row r="47" spans="2:31" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B47" s="67"/>
+      <c r="B47" s="126"/>
       <c r="D47" s="25"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="135"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="73"/>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
@@ -3878,316 +6253,316 @@
       <c r="AE47" s="27"/>
     </row>
     <row r="59" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA59" s="51" t="s">
+      <c r="BA59" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BB59" s="51"/>
-      <c r="BC59" s="51"/>
-      <c r="BD59" s="51"/>
-      <c r="BE59" s="51"/>
-      <c r="BF59" s="51"/>
-      <c r="BG59" s="51"/>
-      <c r="BI59" s="51" t="s">
+      <c r="BB59" s="57"/>
+      <c r="BC59" s="57"/>
+      <c r="BD59" s="57"/>
+      <c r="BE59" s="57"/>
+      <c r="BF59" s="57"/>
+      <c r="BG59" s="57"/>
+      <c r="BI59" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BJ59" s="51"/>
-      <c r="BK59" s="51"/>
-      <c r="BL59" s="51"/>
-      <c r="BM59" s="51"/>
-      <c r="BN59" s="51"/>
-      <c r="BO59" s="51"/>
+      <c r="BJ59" s="57"/>
+      <c r="BK59" s="57"/>
+      <c r="BL59" s="57"/>
+      <c r="BM59" s="57"/>
+      <c r="BN59" s="57"/>
+      <c r="BO59" s="57"/>
     </row>
     <row r="60" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA60" s="51"/>
-      <c r="BB60" s="51"/>
-      <c r="BC60" s="51"/>
-      <c r="BD60" s="51"/>
-      <c r="BE60" s="51"/>
-      <c r="BF60" s="51"/>
-      <c r="BG60" s="51"/>
-      <c r="BI60" s="51"/>
-      <c r="BJ60" s="51"/>
-      <c r="BK60" s="51"/>
-      <c r="BL60" s="51"/>
-      <c r="BM60" s="51"/>
-      <c r="BN60" s="51"/>
-      <c r="BO60" s="51"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="57"/>
+      <c r="BC60" s="57"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="57"/>
+      <c r="BF60" s="57"/>
+      <c r="BG60" s="57"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="57"/>
+      <c r="BK60" s="57"/>
+      <c r="BL60" s="57"/>
+      <c r="BM60" s="57"/>
+      <c r="BN60" s="57"/>
+      <c r="BO60" s="57"/>
     </row>
     <row r="61" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA61" s="51"/>
-      <c r="BB61" s="51"/>
-      <c r="BC61" s="51"/>
-      <c r="BD61" s="51"/>
-      <c r="BE61" s="51"/>
-      <c r="BF61" s="51"/>
-      <c r="BG61" s="51"/>
-      <c r="BI61" s="51"/>
-      <c r="BJ61" s="51"/>
-      <c r="BK61" s="51"/>
-      <c r="BL61" s="51"/>
-      <c r="BM61" s="51"/>
-      <c r="BN61" s="51"/>
-      <c r="BO61" s="51"/>
+      <c r="BA61" s="57"/>
+      <c r="BB61" s="57"/>
+      <c r="BC61" s="57"/>
+      <c r="BD61" s="57"/>
+      <c r="BE61" s="57"/>
+      <c r="BF61" s="57"/>
+      <c r="BG61" s="57"/>
+      <c r="BI61" s="57"/>
+      <c r="BJ61" s="57"/>
+      <c r="BK61" s="57"/>
+      <c r="BL61" s="57"/>
+      <c r="BM61" s="57"/>
+      <c r="BN61" s="57"/>
+      <c r="BO61" s="57"/>
     </row>
     <row r="62" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA62" s="51"/>
-      <c r="BB62" s="51"/>
-      <c r="BC62" s="51"/>
-      <c r="BD62" s="51"/>
-      <c r="BE62" s="51"/>
-      <c r="BF62" s="51"/>
-      <c r="BG62" s="51"/>
-      <c r="BI62" s="51"/>
-      <c r="BJ62" s="51"/>
-      <c r="BK62" s="51"/>
-      <c r="BL62" s="51"/>
-      <c r="BM62" s="51"/>
-      <c r="BN62" s="51"/>
-      <c r="BO62" s="51"/>
+      <c r="BA62" s="57"/>
+      <c r="BB62" s="57"/>
+      <c r="BC62" s="57"/>
+      <c r="BD62" s="57"/>
+      <c r="BE62" s="57"/>
+      <c r="BF62" s="57"/>
+      <c r="BG62" s="57"/>
+      <c r="BI62" s="57"/>
+      <c r="BJ62" s="57"/>
+      <c r="BK62" s="57"/>
+      <c r="BL62" s="57"/>
+      <c r="BM62" s="57"/>
+      <c r="BN62" s="57"/>
+      <c r="BO62" s="57"/>
     </row>
     <row r="63" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA63" s="51"/>
-      <c r="BB63" s="51"/>
-      <c r="BC63" s="51"/>
-      <c r="BD63" s="51"/>
-      <c r="BE63" s="51"/>
-      <c r="BF63" s="51"/>
-      <c r="BG63" s="51"/>
-      <c r="BI63" s="51"/>
-      <c r="BJ63" s="51"/>
-      <c r="BK63" s="51"/>
-      <c r="BL63" s="51"/>
-      <c r="BM63" s="51"/>
-      <c r="BN63" s="51"/>
-      <c r="BO63" s="51"/>
+      <c r="BA63" s="57"/>
+      <c r="BB63" s="57"/>
+      <c r="BC63" s="57"/>
+      <c r="BD63" s="57"/>
+      <c r="BE63" s="57"/>
+      <c r="BF63" s="57"/>
+      <c r="BG63" s="57"/>
+      <c r="BI63" s="57"/>
+      <c r="BJ63" s="57"/>
+      <c r="BK63" s="57"/>
+      <c r="BL63" s="57"/>
+      <c r="BM63" s="57"/>
+      <c r="BN63" s="57"/>
+      <c r="BO63" s="57"/>
     </row>
     <row r="64" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA64" s="51"/>
-      <c r="BB64" s="51"/>
-      <c r="BC64" s="51"/>
-      <c r="BD64" s="51"/>
-      <c r="BE64" s="51"/>
-      <c r="BF64" s="51"/>
-      <c r="BG64" s="51"/>
-      <c r="BI64" s="51"/>
-      <c r="BJ64" s="51"/>
-      <c r="BK64" s="51"/>
-      <c r="BL64" s="51"/>
-      <c r="BM64" s="51"/>
-      <c r="BN64" s="51"/>
-      <c r="BO64" s="51"/>
+      <c r="BA64" s="57"/>
+      <c r="BB64" s="57"/>
+      <c r="BC64" s="57"/>
+      <c r="BD64" s="57"/>
+      <c r="BE64" s="57"/>
+      <c r="BF64" s="57"/>
+      <c r="BG64" s="57"/>
+      <c r="BI64" s="57"/>
+      <c r="BJ64" s="57"/>
+      <c r="BK64" s="57"/>
+      <c r="BL64" s="57"/>
+      <c r="BM64" s="57"/>
+      <c r="BN64" s="57"/>
+      <c r="BO64" s="57"/>
     </row>
     <row r="66" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA66" s="51" t="s">
+      <c r="BA66" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BB66" s="51"/>
-      <c r="BC66" s="51"/>
-      <c r="BD66" s="51"/>
-      <c r="BE66" s="51"/>
-      <c r="BF66" s="51"/>
-      <c r="BG66" s="51"/>
-      <c r="BI66" s="51" t="s">
+      <c r="BB66" s="57"/>
+      <c r="BC66" s="57"/>
+      <c r="BD66" s="57"/>
+      <c r="BE66" s="57"/>
+      <c r="BF66" s="57"/>
+      <c r="BG66" s="57"/>
+      <c r="BI66" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BJ66" s="51"/>
-      <c r="BK66" s="51"/>
-      <c r="BL66" s="51"/>
-      <c r="BM66" s="51"/>
-      <c r="BN66" s="51"/>
-      <c r="BO66" s="51"/>
+      <c r="BJ66" s="57"/>
+      <c r="BK66" s="57"/>
+      <c r="BL66" s="57"/>
+      <c r="BM66" s="57"/>
+      <c r="BN66" s="57"/>
+      <c r="BO66" s="57"/>
     </row>
     <row r="67" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA67" s="51"/>
-      <c r="BB67" s="51"/>
-      <c r="BC67" s="51"/>
-      <c r="BD67" s="51"/>
-      <c r="BE67" s="51"/>
-      <c r="BF67" s="51"/>
-      <c r="BG67" s="51"/>
-      <c r="BI67" s="51"/>
-      <c r="BJ67" s="51"/>
-      <c r="BK67" s="51"/>
-      <c r="BL67" s="51"/>
-      <c r="BM67" s="51"/>
-      <c r="BN67" s="51"/>
-      <c r="BO67" s="51"/>
+      <c r="BA67" s="57"/>
+      <c r="BB67" s="57"/>
+      <c r="BC67" s="57"/>
+      <c r="BD67" s="57"/>
+      <c r="BE67" s="57"/>
+      <c r="BF67" s="57"/>
+      <c r="BG67" s="57"/>
+      <c r="BI67" s="57"/>
+      <c r="BJ67" s="57"/>
+      <c r="BK67" s="57"/>
+      <c r="BL67" s="57"/>
+      <c r="BM67" s="57"/>
+      <c r="BN67" s="57"/>
+      <c r="BO67" s="57"/>
     </row>
     <row r="68" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA68" s="51"/>
-      <c r="BB68" s="51"/>
-      <c r="BC68" s="51"/>
-      <c r="BD68" s="51"/>
-      <c r="BE68" s="51"/>
-      <c r="BF68" s="51"/>
-      <c r="BG68" s="51"/>
-      <c r="BI68" s="51"/>
-      <c r="BJ68" s="51"/>
-      <c r="BK68" s="51"/>
-      <c r="BL68" s="51"/>
-      <c r="BM68" s="51"/>
-      <c r="BN68" s="51"/>
-      <c r="BO68" s="51"/>
+      <c r="BA68" s="57"/>
+      <c r="BB68" s="57"/>
+      <c r="BC68" s="57"/>
+      <c r="BD68" s="57"/>
+      <c r="BE68" s="57"/>
+      <c r="BF68" s="57"/>
+      <c r="BG68" s="57"/>
+      <c r="BI68" s="57"/>
+      <c r="BJ68" s="57"/>
+      <c r="BK68" s="57"/>
+      <c r="BL68" s="57"/>
+      <c r="BM68" s="57"/>
+      <c r="BN68" s="57"/>
+      <c r="BO68" s="57"/>
     </row>
     <row r="69" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA69" s="51"/>
-      <c r="BB69" s="51"/>
-      <c r="BC69" s="51"/>
-      <c r="BD69" s="51"/>
-      <c r="BE69" s="51"/>
-      <c r="BF69" s="51"/>
-      <c r="BG69" s="51"/>
-      <c r="BI69" s="51"/>
-      <c r="BJ69" s="51"/>
-      <c r="BK69" s="51"/>
-      <c r="BL69" s="51"/>
-      <c r="BM69" s="51"/>
-      <c r="BN69" s="51"/>
-      <c r="BO69" s="51"/>
+      <c r="BA69" s="57"/>
+      <c r="BB69" s="57"/>
+      <c r="BC69" s="57"/>
+      <c r="BD69" s="57"/>
+      <c r="BE69" s="57"/>
+      <c r="BF69" s="57"/>
+      <c r="BG69" s="57"/>
+      <c r="BI69" s="57"/>
+      <c r="BJ69" s="57"/>
+      <c r="BK69" s="57"/>
+      <c r="BL69" s="57"/>
+      <c r="BM69" s="57"/>
+      <c r="BN69" s="57"/>
+      <c r="BO69" s="57"/>
     </row>
     <row r="70" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA70" s="51"/>
-      <c r="BB70" s="51"/>
-      <c r="BC70" s="51"/>
-      <c r="BD70" s="51"/>
-      <c r="BE70" s="51"/>
-      <c r="BF70" s="51"/>
-      <c r="BG70" s="51"/>
-      <c r="BI70" s="51"/>
-      <c r="BJ70" s="51"/>
-      <c r="BK70" s="51"/>
-      <c r="BL70" s="51"/>
-      <c r="BM70" s="51"/>
-      <c r="BN70" s="51"/>
-      <c r="BO70" s="51"/>
+      <c r="BA70" s="57"/>
+      <c r="BB70" s="57"/>
+      <c r="BC70" s="57"/>
+      <c r="BD70" s="57"/>
+      <c r="BE70" s="57"/>
+      <c r="BF70" s="57"/>
+      <c r="BG70" s="57"/>
+      <c r="BI70" s="57"/>
+      <c r="BJ70" s="57"/>
+      <c r="BK70" s="57"/>
+      <c r="BL70" s="57"/>
+      <c r="BM70" s="57"/>
+      <c r="BN70" s="57"/>
+      <c r="BO70" s="57"/>
     </row>
     <row r="71" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA71" s="51"/>
-      <c r="BB71" s="51"/>
-      <c r="BC71" s="51"/>
-      <c r="BD71" s="51"/>
-      <c r="BE71" s="51"/>
-      <c r="BF71" s="51"/>
-      <c r="BG71" s="51"/>
-      <c r="BI71" s="51"/>
-      <c r="BJ71" s="51"/>
-      <c r="BK71" s="51"/>
-      <c r="BL71" s="51"/>
-      <c r="BM71" s="51"/>
-      <c r="BN71" s="51"/>
-      <c r="BO71" s="51"/>
+      <c r="BA71" s="57"/>
+      <c r="BB71" s="57"/>
+      <c r="BC71" s="57"/>
+      <c r="BD71" s="57"/>
+      <c r="BE71" s="57"/>
+      <c r="BF71" s="57"/>
+      <c r="BG71" s="57"/>
+      <c r="BI71" s="57"/>
+      <c r="BJ71" s="57"/>
+      <c r="BK71" s="57"/>
+      <c r="BL71" s="57"/>
+      <c r="BM71" s="57"/>
+      <c r="BN71" s="57"/>
+      <c r="BO71" s="57"/>
     </row>
     <row r="73" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA73" s="51" t="s">
+      <c r="BA73" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BB73" s="51"/>
-      <c r="BC73" s="51"/>
-      <c r="BD73" s="51"/>
-      <c r="BE73" s="51"/>
-      <c r="BF73" s="51"/>
-      <c r="BG73" s="51"/>
+      <c r="BB73" s="57"/>
+      <c r="BC73" s="57"/>
+      <c r="BD73" s="57"/>
+      <c r="BE73" s="57"/>
+      <c r="BF73" s="57"/>
+      <c r="BG73" s="57"/>
     </row>
     <row r="74" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA74" s="51"/>
-      <c r="BB74" s="51"/>
-      <c r="BC74" s="51"/>
-      <c r="BD74" s="51"/>
-      <c r="BE74" s="51"/>
-      <c r="BF74" s="51"/>
-      <c r="BG74" s="51"/>
+      <c r="BA74" s="57"/>
+      <c r="BB74" s="57"/>
+      <c r="BC74" s="57"/>
+      <c r="BD74" s="57"/>
+      <c r="BE74" s="57"/>
+      <c r="BF74" s="57"/>
+      <c r="BG74" s="57"/>
     </row>
     <row r="75" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA75" s="51"/>
-      <c r="BB75" s="51"/>
-      <c r="BC75" s="51"/>
-      <c r="BD75" s="51"/>
-      <c r="BE75" s="51"/>
-      <c r="BF75" s="51"/>
-      <c r="BG75" s="51"/>
+      <c r="BA75" s="57"/>
+      <c r="BB75" s="57"/>
+      <c r="BC75" s="57"/>
+      <c r="BD75" s="57"/>
+      <c r="BE75" s="57"/>
+      <c r="BF75" s="57"/>
+      <c r="BG75" s="57"/>
     </row>
     <row r="76" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA76" s="51"/>
-      <c r="BB76" s="51"/>
-      <c r="BC76" s="51"/>
-      <c r="BD76" s="51"/>
-      <c r="BE76" s="51"/>
-      <c r="BF76" s="51"/>
-      <c r="BG76" s="51"/>
+      <c r="BA76" s="57"/>
+      <c r="BB76" s="57"/>
+      <c r="BC76" s="57"/>
+      <c r="BD76" s="57"/>
+      <c r="BE76" s="57"/>
+      <c r="BF76" s="57"/>
+      <c r="BG76" s="57"/>
     </row>
     <row r="77" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA77" s="51"/>
-      <c r="BB77" s="51"/>
-      <c r="BC77" s="51"/>
-      <c r="BD77" s="51"/>
-      <c r="BE77" s="51"/>
-      <c r="BF77" s="51"/>
-      <c r="BG77" s="51"/>
+      <c r="BA77" s="57"/>
+      <c r="BB77" s="57"/>
+      <c r="BC77" s="57"/>
+      <c r="BD77" s="57"/>
+      <c r="BE77" s="57"/>
+      <c r="BF77" s="57"/>
+      <c r="BG77" s="57"/>
     </row>
     <row r="78" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA78" s="51"/>
-      <c r="BB78" s="51"/>
-      <c r="BC78" s="51"/>
-      <c r="BD78" s="51"/>
-      <c r="BE78" s="51"/>
-      <c r="BF78" s="51"/>
-      <c r="BG78" s="51"/>
+      <c r="BA78" s="57"/>
+      <c r="BB78" s="57"/>
+      <c r="BC78" s="57"/>
+      <c r="BD78" s="57"/>
+      <c r="BE78" s="57"/>
+      <c r="BF78" s="57"/>
+      <c r="BG78" s="57"/>
     </row>
     <row r="80" spans="53:67" x14ac:dyDescent="0.25">
-      <c r="BA80" s="51" t="s">
+      <c r="BA80" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="BB80" s="51"/>
-      <c r="BC80" s="51"/>
-      <c r="BD80" s="51"/>
-      <c r="BE80" s="51"/>
-      <c r="BF80" s="51"/>
-      <c r="BG80" s="51"/>
+      <c r="BB80" s="57"/>
+      <c r="BC80" s="57"/>
+      <c r="BD80" s="57"/>
+      <c r="BE80" s="57"/>
+      <c r="BF80" s="57"/>
+      <c r="BG80" s="57"/>
     </row>
     <row r="81" spans="53:68" x14ac:dyDescent="0.25">
-      <c r="BA81" s="51"/>
-      <c r="BB81" s="51"/>
-      <c r="BC81" s="51"/>
-      <c r="BD81" s="51"/>
-      <c r="BE81" s="51"/>
-      <c r="BF81" s="51"/>
-      <c r="BG81" s="51"/>
+      <c r="BA81" s="57"/>
+      <c r="BB81" s="57"/>
+      <c r="BC81" s="57"/>
+      <c r="BD81" s="57"/>
+      <c r="BE81" s="57"/>
+      <c r="BF81" s="57"/>
+      <c r="BG81" s="57"/>
     </row>
     <row r="82" spans="53:68" x14ac:dyDescent="0.25">
-      <c r="BA82" s="51"/>
-      <c r="BB82" s="51"/>
-      <c r="BC82" s="51"/>
-      <c r="BD82" s="51"/>
-      <c r="BE82" s="51"/>
-      <c r="BF82" s="51"/>
-      <c r="BG82" s="51"/>
+      <c r="BA82" s="57"/>
+      <c r="BB82" s="57"/>
+      <c r="BC82" s="57"/>
+      <c r="BD82" s="57"/>
+      <c r="BE82" s="57"/>
+      <c r="BF82" s="57"/>
+      <c r="BG82" s="57"/>
     </row>
     <row r="83" spans="53:68" x14ac:dyDescent="0.25">
-      <c r="BA83" s="51"/>
-      <c r="BB83" s="51"/>
-      <c r="BC83" s="51"/>
-      <c r="BD83" s="51"/>
-      <c r="BE83" s="51"/>
-      <c r="BF83" s="51"/>
-      <c r="BG83" s="51"/>
+      <c r="BA83" s="57"/>
+      <c r="BB83" s="57"/>
+      <c r="BC83" s="57"/>
+      <c r="BD83" s="57"/>
+      <c r="BE83" s="57"/>
+      <c r="BF83" s="57"/>
+      <c r="BG83" s="57"/>
     </row>
     <row r="84" spans="53:68" x14ac:dyDescent="0.25">
-      <c r="BA84" s="51"/>
-      <c r="BB84" s="51"/>
-      <c r="BC84" s="51"/>
-      <c r="BD84" s="51"/>
-      <c r="BE84" s="51"/>
-      <c r="BF84" s="51"/>
-      <c r="BG84" s="51"/>
+      <c r="BA84" s="57"/>
+      <c r="BB84" s="57"/>
+      <c r="BC84" s="57"/>
+      <c r="BD84" s="57"/>
+      <c r="BE84" s="57"/>
+      <c r="BF84" s="57"/>
+      <c r="BG84" s="57"/>
     </row>
     <row r="85" spans="53:68" x14ac:dyDescent="0.25">
-      <c r="BA85" s="51"/>
-      <c r="BB85" s="51"/>
-      <c r="BC85" s="51"/>
-      <c r="BD85" s="51"/>
-      <c r="BE85" s="51"/>
-      <c r="BF85" s="51"/>
-      <c r="BG85" s="51"/>
+      <c r="BA85" s="57"/>
+      <c r="BB85" s="57"/>
+      <c r="BC85" s="57"/>
+      <c r="BD85" s="57"/>
+      <c r="BE85" s="57"/>
+      <c r="BF85" s="57"/>
+      <c r="BG85" s="57"/>
       <c r="BH85" s="15"/>
       <c r="BI85" s="15"/>
       <c r="BJ85" s="15"/>
@@ -4200,21 +6575,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="W20:X26"/>
-    <mergeCell ref="AC12:AD18"/>
-    <mergeCell ref="Z12:AA18"/>
-    <mergeCell ref="E46:I47"/>
-    <mergeCell ref="N40:T45"/>
-    <mergeCell ref="M21:S27"/>
-    <mergeCell ref="E29:K35"/>
-    <mergeCell ref="M29:S35"/>
-    <mergeCell ref="F38:G40"/>
-    <mergeCell ref="H38:J43"/>
-    <mergeCell ref="BI59:BO64"/>
-    <mergeCell ref="BA66:BG71"/>
-    <mergeCell ref="BI66:BO71"/>
-    <mergeCell ref="U39:AA45"/>
-    <mergeCell ref="AB41:AD45"/>
     <mergeCell ref="D2:AE2"/>
     <mergeCell ref="B4:B47"/>
     <mergeCell ref="BA73:BG78"/>
@@ -4231,6 +6591,21 @@
     <mergeCell ref="Z20:AA26"/>
     <mergeCell ref="AC20:AD26"/>
     <mergeCell ref="W12:X18"/>
+    <mergeCell ref="BI59:BO64"/>
+    <mergeCell ref="BA66:BG71"/>
+    <mergeCell ref="BI66:BO71"/>
+    <mergeCell ref="U39:AA45"/>
+    <mergeCell ref="AB41:AD45"/>
+    <mergeCell ref="W20:X26"/>
+    <mergeCell ref="AC12:AD18"/>
+    <mergeCell ref="Z12:AA18"/>
+    <mergeCell ref="E46:I47"/>
+    <mergeCell ref="N40:T45"/>
+    <mergeCell ref="M21:S27"/>
+    <mergeCell ref="E29:K35"/>
+    <mergeCell ref="M29:S35"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="H38:J43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
